--- a/model/Outputs/8. Fixed RE/With PV/Output Files/10/Output_4_31.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/10/Output_4_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500735</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500735</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177243</v>
+        <v>3940022.790763143</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177243</v>
+        <v>3940022.790763143</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494247180.596206</v>
+        <v>56687243.12577439</v>
       </c>
     </row>
   </sheetData>
@@ -758,13 +758,13 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G3" t="n">
-        <v>321.0633076155676</v>
+        <v>322.5970075731406</v>
       </c>
       <c r="H3" t="n">
         <v>301.8178796392513</v>
       </c>
       <c r="I3" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>105.228266425598</v>
       </c>
       <c r="R4" t="n">
-        <v>208.1413738827905</v>
+        <v>208.1413738827904</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T5" t="n">
-        <v>559.576574119003</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U5" t="n">
         <v>648.751427201877</v>
@@ -1153,7 +1153,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G8" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H8" t="n">
         <v>347.8590406130752</v>
@@ -1198,7 +1198,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V8" t="n">
-        <v>628.4626798738458</v>
+        <v>629.8510241668239</v>
       </c>
       <c r="W8" t="n">
         <v>638.3734759809475</v>
@@ -1238,7 +1238,7 @@
         <v>301.8178796392513</v>
       </c>
       <c r="I9" t="n">
-        <v>107.3959878205679</v>
+        <v>108.929687778141</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W9" t="n">
-        <v>432.3731429098285</v>
+        <v>430.8394429522557</v>
       </c>
       <c r="X9" t="n">
         <v>419.8627394453875</v>
@@ -1393,7 +1393,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H11" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>629.8510241668239</v>
       </c>
       <c r="W11" t="n">
-        <v>636.9851316879694</v>
+        <v>638.3734759809475</v>
       </c>
       <c r="X11" t="n">
         <v>592.2818334606677</v>
@@ -1502,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S12" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T12" t="n">
         <v>392.6911708778912</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1590,19 +1590,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>133.3568653036801</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
     </row>
     <row r="14">
@@ -1666,7 +1666,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T14" t="n">
-        <v>559.576574119003</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U14" t="n">
         <v>648.751427201877</v>
@@ -1678,7 +1678,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X14" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891676897</v>
       </c>
       <c r="Y14" t="n">
         <v>511.3174326828064</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G17" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H17" t="n">
         <v>347.8590406130752</v>
@@ -1903,7 +1903,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T17" t="n">
-        <v>560.964918411981</v>
+        <v>559.576574119003</v>
       </c>
       <c r="U17" t="n">
         <v>648.751427201877</v>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S18" t="n">
         <v>408.192915058951</v>
@@ -1991,7 +1991,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W18" t="n">
-        <v>430.8394429522557</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X18" t="n">
         <v>419.8627394453875</v>
@@ -2052,31 +2052,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,10 +2101,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G20" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963201042</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2274,19 +2274,19 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="W25" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H26" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V26" t="n">
-        <v>629.8510241668239</v>
+        <v>628.4626798738458</v>
       </c>
       <c r="W26" t="n">
         <v>638.3734759809475</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>165.2127885434264</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>404.8896287078554</v>
       </c>
       <c r="G29" t="n">
-        <v>397.8840054526889</v>
+        <v>396.4956611619018</v>
       </c>
       <c r="H29" t="n">
         <v>347.8590406129188</v>
@@ -2857,7 +2857,7 @@
         <v>648.7514272017206</v>
       </c>
       <c r="V29" t="n">
-        <v>628.4626798758798</v>
+        <v>629.8510241666675</v>
       </c>
       <c r="W29" t="n">
         <v>638.3734759807911</v>
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>350.6276822440399</v>
+        <v>352.1613821978832</v>
       </c>
       <c r="S30" t="n">
-        <v>408.1929150587945</v>
+        <v>406.659215104951</v>
       </c>
       <c r="T30" t="n">
         <v>392.6911708777347</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H32" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U32" t="n">
-        <v>647.3630829088994</v>
+        <v>648.751427201877</v>
       </c>
       <c r="V32" t="n">
         <v>629.8510241668239</v>
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S33" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T33" t="n">
         <v>392.6911708778912</v>
@@ -3246,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V35" t="n">
-        <v>629.8510241668239</v>
+        <v>628.4626798738458</v>
       </c>
       <c r="W35" t="n">
         <v>638.3734759809475</v>
@@ -3340,7 +3340,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y35" t="n">
-        <v>509.9290883898282</v>
+        <v>511.3174326828064</v>
       </c>
     </row>
     <row r="36">
@@ -3483,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H38" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>629.8510241668239</v>
       </c>
       <c r="W38" t="n">
-        <v>636.9851316879694</v>
+        <v>638.3734759809475</v>
       </c>
       <c r="X38" t="n">
         <v>592.2818334606677</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S39" t="n">
         <v>408.192915058951</v>
@@ -3650,7 +3650,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W39" t="n">
-        <v>430.8394429522557</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X39" t="n">
         <v>419.8627394453875</v>
@@ -3720,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H41" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T41" t="n">
         <v>560.964918411981</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="W43" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E44" t="n">
-        <v>402.9749453138904</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F44" t="n">
         <v>404.8896287080119</v>
       </c>
       <c r="G44" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H44" t="n">
         <v>347.8590406130752</v>
@@ -4109,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S45" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T45" t="n">
         <v>392.6911708778912</v>
@@ -4176,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4333,25 +4333,25 @@
         <v>140.96</v>
       </c>
       <c r="I2" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J2" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K2" t="n">
-        <v>1841.010275303557</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L2" t="n">
-        <v>2758.60299862014</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M2" t="n">
-        <v>3240.782198133642</v>
+        <v>3418.242061939566</v>
       </c>
       <c r="N2" t="n">
-        <v>4845.157279159621</v>
+        <v>3983.285125812238</v>
       </c>
       <c r="O2" t="n">
-        <v>5755.312162100365</v>
+        <v>4893.440008752982</v>
       </c>
       <c r="P2" t="n">
         <v>6591.179490197778</v>
@@ -4406,10 +4406,10 @@
         <v>880.1629040736968</v>
       </c>
       <c r="G3" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H3" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I3" t="n">
         <v>140.96</v>
@@ -4503,16 +4503,16 @@
         <v>307.8416045893196</v>
       </c>
       <c r="M4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="N4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="O4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="P4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="Q4" t="n">
         <v>351.2038120028187</v>
@@ -4573,34 +4573,34 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J5" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K5" t="n">
-        <v>1841.010275303557</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L5" t="n">
-        <v>2758.60299862014</v>
+        <v>3042.307675747712</v>
       </c>
       <c r="M5" t="n">
-        <v>3240.782198133642</v>
+        <v>3524.486875261216</v>
       </c>
       <c r="N5" t="n">
-        <v>3805.825262006314</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O5" t="n">
-        <v>4715.980144947059</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P5" t="n">
-        <v>5864.602299897897</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q5" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R5" t="n">
         <v>7048</v>
       </c>
       <c r="S5" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T5" t="n">
         <v>6118.11576243671</v>
@@ -4731,7 +4731,7 @@
         <v>140.96</v>
       </c>
       <c r="J7" t="n">
-        <v>440.0999956178874</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K7" t="n">
         <v>457.4949902104935</v>
@@ -4786,19 +4786,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C8" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D8" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E8" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F8" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G8" t="n">
         <v>492.3327682960356</v>
@@ -4807,31 +4807,31 @@
         <v>140.96</v>
       </c>
       <c r="I8" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J8" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K8" t="n">
-        <v>1415.008586083262</v>
+        <v>2049.12665539136</v>
       </c>
       <c r="L8" t="n">
-        <v>2936.062862426063</v>
+        <v>2966.719378707943</v>
       </c>
       <c r="M8" t="n">
-        <v>3418.242061939566</v>
+        <v>3448.898578221445</v>
       </c>
       <c r="N8" t="n">
-        <v>3983.285125812238</v>
+        <v>4013.941642094117</v>
       </c>
       <c r="O8" t="n">
-        <v>4893.440008752982</v>
+        <v>4924.096525034862</v>
       </c>
       <c r="P8" t="n">
-        <v>6591.179490197778</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q8" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R8" t="n">
         <v>7048</v>
@@ -4846,16 +4846,16 @@
         <v>5461.408922542916</v>
       </c>
       <c r="V8" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W8" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X8" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y8" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="9">
@@ -4865,25 +4865,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2285.562842359567</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C9" t="n">
-        <v>1920.815456050962</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D9" t="n">
-        <v>1569.363247063383</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E9" t="n">
-        <v>1223.229815526098</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F9" t="n">
-        <v>880.1629040736968</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G9" t="n">
-        <v>554.3073408685043</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H9" t="n">
-        <v>249.4407957783515</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I9" t="n">
         <v>140.96</v>
@@ -4928,13 +4928,13 @@
         <v>3938.273783539039</v>
       </c>
       <c r="W9" t="n">
-        <v>3501.533235145273</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X9" t="n">
-        <v>3077.429457927709</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y9" t="n">
-        <v>2674.003808668988</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="10">
@@ -4971,13 +4971,13 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K10" t="n">
-        <v>307.8416045893196</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="L10" t="n">
-        <v>307.8416045893196</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="M10" t="n">
-        <v>307.8416045893196</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="N10" t="n">
         <v>426.6131206966359</v>
@@ -5023,22 +5023,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C11" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D11" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E11" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F11" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G11" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H11" t="n">
         <v>140.96</v>
@@ -5047,22 +5047,22 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J11" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K11" t="n">
-        <v>1841.010275303557</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L11" t="n">
-        <v>2758.60299862014</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M11" t="n">
-        <v>3240.782198133642</v>
+        <v>3670.420662750071</v>
       </c>
       <c r="N11" t="n">
-        <v>3805.825262006314</v>
+        <v>4235.463726622743</v>
       </c>
       <c r="O11" t="n">
-        <v>4715.980144947059</v>
+        <v>5145.618609563487</v>
       </c>
       <c r="P11" t="n">
         <v>5981.4859376609</v>
@@ -5086,13 +5086,13 @@
         <v>4825.195766818852</v>
       </c>
       <c r="W11" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X11" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y11" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="12">
@@ -5150,7 +5150,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R12" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S12" t="n">
         <v>5159.222422432123</v>
@@ -5211,43 +5211,43 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L13" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M13" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N13" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O13" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P13" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q13" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R13" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S13" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T13" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6639043471516</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="V13" t="n">
-        <v>275.6639043471516</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="W13" t="n">
-        <v>140.96</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="X13" t="n">
-        <v>140.96</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="Y13" t="n">
         <v>140.96</v>
@@ -5284,22 +5284,22 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J14" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K14" t="n">
-        <v>1841.010275303557</v>
+        <v>2046.117175397607</v>
       </c>
       <c r="L14" t="n">
-        <v>2936.062862426063</v>
+        <v>2963.70989871419</v>
       </c>
       <c r="M14" t="n">
-        <v>3418.242061939566</v>
+        <v>3445.889098227693</v>
       </c>
       <c r="N14" t="n">
-        <v>3983.285125812238</v>
+        <v>4010.932162100365</v>
       </c>
       <c r="O14" t="n">
-        <v>4893.440008752982</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P14" t="n">
         <v>6591.179490197778</v>
@@ -5314,16 +5314,16 @@
         <v>6683.344625183177</v>
       </c>
       <c r="T14" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U14" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V14" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W14" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X14" t="n">
         <v>3583.51196363841</v>
@@ -5472,13 +5472,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W16" t="n">
         <v>140.96</v>
@@ -5497,19 +5497,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C17" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D17" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E17" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F17" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G17" t="n">
         <v>492.3327682960356</v>
@@ -5527,22 +5527,22 @@
         <v>1415.008586083262</v>
       </c>
       <c r="L17" t="n">
-        <v>3159.388586083262</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M17" t="n">
-        <v>3641.567785596765</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N17" t="n">
-        <v>4206.610849469437</v>
+        <v>3866.401488049235</v>
       </c>
       <c r="O17" t="n">
-        <v>5116.765732410181</v>
+        <v>4776.556370989979</v>
       </c>
       <c r="P17" t="n">
-        <v>5981.4859376609</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q17" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R17" t="n">
         <v>7048</v>
@@ -5551,22 +5551,22 @@
         <v>6683.344625183177</v>
       </c>
       <c r="T17" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U17" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V17" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W17" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X17" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y17" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="18">
@@ -5624,19 +5624,19 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R18" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S18" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T18" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U18" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V18" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W18" t="n">
         <v>3503.082427021609</v>
@@ -5700,28 +5700,28 @@
         <v>307.8416045893196</v>
       </c>
       <c r="Q19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y19" t="n">
         <v>140.96</v>
@@ -5734,25 +5734,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C20" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D20" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E20" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F20" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G20" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H20" t="n">
-        <v>140.96</v>
+        <v>140.9599999999946</v>
       </c>
       <c r="I20" t="n">
         <v>140.96</v>
@@ -5761,49 +5761,49 @@
         <v>599.7771454756521</v>
       </c>
       <c r="K20" t="n">
-        <v>1339.420289043491</v>
+        <v>1436.423622860731</v>
       </c>
       <c r="L20" t="n">
-        <v>2257.013012360075</v>
+        <v>2354.016346177314</v>
       </c>
       <c r="M20" t="n">
-        <v>3670.420662750071</v>
+        <v>2836.195545690816</v>
       </c>
       <c r="N20" t="n">
-        <v>4235.463726622743</v>
+        <v>3401.238609563488</v>
       </c>
       <c r="O20" t="n">
-        <v>5145.618609563487</v>
+        <v>5145.618609563488</v>
       </c>
       <c r="P20" t="n">
-        <v>5981.4859376609</v>
+        <v>5981.485937660902</v>
       </c>
       <c r="Q20" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R20" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W20" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X20" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y20" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="21">
@@ -5922,16 +5922,16 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L22" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M22" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P22" t="n">
         <v>140.96</v>
@@ -5983,7 +5983,7 @@
         <v>1301.812859071671</v>
       </c>
       <c r="F23" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361342854</v>
       </c>
       <c r="G23" t="n">
         <v>490.9304003233303</v>
@@ -5992,28 +5992,28 @@
         <v>140.96</v>
       </c>
       <c r="I23" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J23" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K23" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L23" t="n">
-        <v>2332.601309399844</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M23" t="n">
-        <v>2814.780508913348</v>
+        <v>3418.242061939566</v>
       </c>
       <c r="N23" t="n">
-        <v>3379.82357278602</v>
+        <v>3983.285125812238</v>
       </c>
       <c r="O23" t="n">
-        <v>4289.978455726764</v>
+        <v>4893.440008752982</v>
       </c>
       <c r="P23" t="n">
-        <v>5981.4859376609</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q23" t="n">
         <v>7048</v>
@@ -6189,7 +6189,7 @@
         <v>155.5035375626275</v>
       </c>
       <c r="V25" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="W25" t="n">
         <v>140.96</v>
@@ -6208,49 +6208,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C26" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D26" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E26" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F26" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G26" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H26" t="n">
         <v>140.96</v>
       </c>
       <c r="I26" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J26" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K26" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L26" t="n">
-        <v>2748.266680678617</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M26" t="n">
-        <v>4280.114215286949</v>
+        <v>3670.420662750071</v>
       </c>
       <c r="N26" t="n">
-        <v>4845.157279159621</v>
+        <v>4235.463726622743</v>
       </c>
       <c r="O26" t="n">
-        <v>5755.312162100365</v>
+        <v>5145.618609563487</v>
       </c>
       <c r="P26" t="n">
-        <v>6591.179490197778</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q26" t="n">
         <v>7048</v>
@@ -6268,16 +6268,16 @@
         <v>5461.408922542916</v>
       </c>
       <c r="V26" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W26" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X26" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y26" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="27">
@@ -6420,7 +6420,7 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T28" t="n">
-        <v>140.96</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="U28" t="n">
         <v>140.96</v>
@@ -6445,19 +6445,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2580.161715517885</v>
+        <v>2578.759347547393</v>
       </c>
       <c r="C29" t="n">
-        <v>2126.14699002007</v>
+        <v>2124.744622049578</v>
       </c>
       <c r="D29" t="n">
-        <v>1711.66299432341</v>
+        <v>1710.260626352918</v>
       </c>
       <c r="E29" t="n">
-        <v>1303.215227043902</v>
+        <v>1301.81285907341</v>
       </c>
       <c r="F29" t="n">
-        <v>894.2358041066745</v>
+        <v>892.8334361361824</v>
       </c>
       <c r="G29" t="n">
         <v>492.3327682958776</v>
@@ -6466,31 +6466,31 @@
         <v>140.96</v>
       </c>
       <c r="I29" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J29" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K29" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L29" t="n">
-        <v>3159.388586083262</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M29" t="n">
-        <v>3641.567785596765</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N29" t="n">
-        <v>4206.610849469437</v>
+        <v>4389.93206401015</v>
       </c>
       <c r="O29" t="n">
-        <v>5116.765732410181</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P29" t="n">
-        <v>5952.633060507595</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q29" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R29" t="n">
         <v>7048</v>
@@ -6505,16 +6505,16 @@
         <v>5461.408922543391</v>
       </c>
       <c r="V29" t="n">
-        <v>4826.598134789977</v>
+        <v>4825.195766819485</v>
       </c>
       <c r="W29" t="n">
-        <v>4181.776441880087</v>
+        <v>4180.374073909595</v>
       </c>
       <c r="X29" t="n">
-        <v>3583.511963637146</v>
+        <v>3582.109595666654</v>
       </c>
       <c r="Y29" t="n">
-        <v>3067.029708402146</v>
+        <v>3065.627340431654</v>
       </c>
     </row>
     <row r="30">
@@ -6572,7 +6572,7 @@
         <v>5925.707874250955</v>
       </c>
       <c r="R30" t="n">
-        <v>5571.538498246874</v>
+        <v>5569.989306374305</v>
       </c>
       <c r="S30" t="n">
         <v>5159.22242242991</v>
@@ -6657,10 +6657,10 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V31" t="n">
         <v>140.96</v>
@@ -6682,49 +6682,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C32" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D32" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E32" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F32" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342854</v>
       </c>
       <c r="G32" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H32" t="n">
         <v>140.96</v>
       </c>
       <c r="I32" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J32" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K32" t="n">
-        <v>2550.716641651425</v>
+        <v>2049.12665539136</v>
       </c>
       <c r="L32" t="n">
-        <v>3468.309364968008</v>
+        <v>3188.241463236568</v>
       </c>
       <c r="M32" t="n">
-        <v>4280.114215286949</v>
+        <v>3670.420662750071</v>
       </c>
       <c r="N32" t="n">
-        <v>4845.157279159621</v>
+        <v>4235.463726622743</v>
       </c>
       <c r="O32" t="n">
-        <v>5755.312162100365</v>
+        <v>5145.618609563487</v>
       </c>
       <c r="P32" t="n">
-        <v>6591.179490197778</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q32" t="n">
         <v>7048</v>
@@ -6739,19 +6739,19 @@
         <v>6116.713394464005</v>
       </c>
       <c r="U32" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V32" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W32" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X32" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y32" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="33">
@@ -6809,7 +6809,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R33" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S33" t="n">
         <v>5159.222422432123</v>
@@ -6894,10 +6894,10 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V34" t="n">
         <v>140.96</v>
@@ -6940,31 +6940,31 @@
         <v>140.96</v>
       </c>
       <c r="I35" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J35" t="n">
-        <v>599.7771454756521</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K35" t="n">
-        <v>1339.420289043491</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L35" t="n">
-        <v>2257.013012360075</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M35" t="n">
-        <v>2739.192211873577</v>
+        <v>3240.782198133642</v>
       </c>
       <c r="N35" t="n">
-        <v>3304.235275746249</v>
+        <v>3866.401488049235</v>
       </c>
       <c r="O35" t="n">
-        <v>4893.440008752982</v>
+        <v>4776.556370989979</v>
       </c>
       <c r="P35" t="n">
-        <v>6591.179490197778</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q35" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R35" t="n">
         <v>7048</v>
@@ -6979,13 +6979,13 @@
         <v>5461.408922542916</v>
       </c>
       <c r="V35" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W35" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X35" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y35" t="n">
         <v>3067.029708403252</v>
@@ -7131,10 +7131,10 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V37" t="n">
         <v>140.96</v>
@@ -7156,22 +7156,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C38" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D38" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E38" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F38" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342854</v>
       </c>
       <c r="G38" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H38" t="n">
         <v>140.96</v>
@@ -7180,22 +7180,22 @@
         <v>140.96</v>
       </c>
       <c r="J38" t="n">
-        <v>1025.778834695947</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K38" t="n">
-        <v>2475.128344611655</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L38" t="n">
-        <v>3681.051378010443</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M38" t="n">
-        <v>4163.230577523946</v>
+        <v>3301.358424176563</v>
       </c>
       <c r="N38" t="n">
-        <v>4728.273641396618</v>
+        <v>3866.401488049235</v>
       </c>
       <c r="O38" t="n">
-        <v>5638.428524337362</v>
+        <v>4776.556370989979</v>
       </c>
       <c r="P38" t="n">
         <v>6474.295852434775</v>
@@ -7219,13 +7219,13 @@
         <v>4825.195766818852</v>
       </c>
       <c r="W38" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X38" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y38" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="39">
@@ -7283,19 +7283,19 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R39" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S39" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T39" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U39" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V39" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W39" t="n">
         <v>3503.082427021609</v>
@@ -7368,10 +7368,10 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V40" t="n">
         <v>140.96</v>
@@ -7393,46 +7393,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C41" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D41" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E41" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F41" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342854</v>
       </c>
       <c r="G41" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H41" t="n">
         <v>140.96</v>
       </c>
       <c r="I41" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J41" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K41" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L41" t="n">
-        <v>2332.601309399844</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M41" t="n">
-        <v>2814.780508913348</v>
+        <v>3788.860546968407</v>
       </c>
       <c r="N41" t="n">
-        <v>3379.82357278602</v>
+        <v>4353.903610841079</v>
       </c>
       <c r="O41" t="n">
-        <v>4893.440008752982</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P41" t="n">
         <v>6591.179490197778</v>
@@ -7444,25 +7444,25 @@
         <v>7048</v>
       </c>
       <c r="S41" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T41" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U41" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V41" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W41" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X41" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y41" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="42">
@@ -7608,10 +7608,10 @@
         <v>307.8416045893196</v>
       </c>
       <c r="U43" t="n">
-        <v>155.5035375626275</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V43" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="W43" t="n">
         <v>140.96</v>
@@ -7639,10 +7639,10 @@
         <v>1710.260626351336</v>
       </c>
       <c r="E44" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F44" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342854</v>
       </c>
       <c r="G44" t="n">
         <v>492.3327682960356</v>
@@ -7651,31 +7651,31 @@
         <v>140.96</v>
       </c>
       <c r="I44" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J44" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K44" t="n">
-        <v>1339.420289043491</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L44" t="n">
-        <v>2257.013012360075</v>
+        <v>3159.388586083262</v>
       </c>
       <c r="M44" t="n">
-        <v>2739.192211873577</v>
+        <v>3641.567785596765</v>
       </c>
       <c r="N44" t="n">
-        <v>3304.235275746249</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O44" t="n">
-        <v>5048.61527574625</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P44" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q44" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R44" t="n">
         <v>7048</v>
@@ -7757,7 +7757,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R45" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S45" t="n">
         <v>5159.222422432123</v>
@@ -7824,31 +7824,31 @@
         <v>307.8416045893196</v>
       </c>
       <c r="N46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W46" t="n">
         <v>140.96</v>
@@ -7981,10 +7981,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J2" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>685.9089394605945</v>
       </c>
       <c r="N2" t="n">
-        <v>1049.830320356875</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8221,10 +8221,10 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J5" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8233,19 +8233,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>763.2599394199324</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>315.9139665186106</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8455,16 +8455,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L8" t="n">
-        <v>609.5571242689077</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8476,13 +8476,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>870.5779326741233</v>
+        <v>105.695400773355</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R8" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8695,7 +8695,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J11" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>864.2829836734576</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>433.9782470873006</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>615.8520732695737</v>
@@ -8932,13 +8932,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J14" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>637.4834235498438</v>
       </c>
       <c r="L14" t="n">
-        <v>179.2523876827511</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P14" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9175,25 +9175,25 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>835.138663316583</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>491.4928437002175</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>29.14432035687412</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q17" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9403,25 +9403,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>44.29520053209296</v>
+        <v>44.29520053209842</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>97.98316547195896</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>940.6347988651447</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>685.9089394605945</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9661,10 +9661,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>864.282983673457</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q23" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>176.4768357656695</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -9886,10 +9886,10 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>419.8640113926992</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1060.271045550332</v>
+        <v>940.6347988651447</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9901,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R26" t="n">
         <v>176.4768357656695</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -10123,25 +10123,25 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>835.138663316583</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>459.8234496459306</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>526.9321130577583</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,19 +10351,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J32" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>223.759681342046</v>
       </c>
       <c r="M32" t="n">
-        <v>332.9552028337761</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R32" t="n">
         <v>176.4768357656695</v>
@@ -10588,10 +10588,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10603,10 +10603,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>61.18810711406104</v>
       </c>
       <c r="O35" t="n">
-        <v>685.9089394605946</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>870.5779326741233</v>
@@ -10615,7 +10615,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10828,16 +10828,16 @@
         <v>44.29520053209296</v>
       </c>
       <c r="J38" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>291.2427374567724</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>567.8446588919045</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -11074,16 +11074,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>609.5571242689077</v>
+        <v>496.2158265843855</v>
       </c>
       <c r="P41" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -11308,25 +11308,25 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>835.138663316583</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>644.9963936264485</v>
       </c>
       <c r="O44" t="n">
-        <v>842.6516333931879</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>595.77095817284</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23281,7 +23281,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23390,10 +23390,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23451,7 +23451,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M13" t="n">
         <v>107.6476277959926</v>
@@ -23478,19 +23478,19 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U13" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>199.1703102162162</v>
       </c>
       <c r="W13" t="n">
-        <v>93.01594453502963</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X13" t="n">
         <v>247.4436454301076</v>
       </c>
       <c r="Y13" t="n">
-        <v>287.4653528494624</v>
+        <v>273.0672506624611</v>
       </c>
     </row>
     <row r="14">
@@ -23554,19 +23554,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>1.38834429297799</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T16" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U16" t="n">
         <v>150.8146863564251</v>
@@ -23721,7 +23721,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W16" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X16" t="n">
         <v>247.4436454301076</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23864,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>1.533699957572821</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>368.8061924102448</v>
       </c>
       <c r="Q19" t="n">
-        <v>340.0154778821716</v>
+        <v>505.228266425598</v>
       </c>
       <c r="R19" t="n">
         <v>608.1413738827905</v>
@@ -23964,7 +23964,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y19" t="n">
-        <v>287.4653528494624</v>
+        <v>122.252564306036</v>
       </c>
     </row>
     <row r="20">
@@ -23989,10 +23989,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.388344292970999</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24162,19 +24162,19 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N22" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O22" t="n">
         <v>268.0582198167198</v>
       </c>
       <c r="P22" t="n">
-        <v>368.8061924102448</v>
+        <v>203.5934038668184</v>
       </c>
       <c r="Q22" t="n">
         <v>505.228266425598</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>199.1703102162162</v>
+        <v>184.7722080292149</v>
       </c>
       <c r="W25" t="n">
-        <v>211.9747076517084</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X25" t="n">
         <v>247.4436454301076</v>
@@ -24466,7 +24466,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.388344292978104</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24660,10 +24660,10 @@
         <v>316.45975839138</v>
       </c>
       <c r="T28" t="n">
-        <v>33.55489271692969</v>
+        <v>184.3695790733548</v>
       </c>
       <c r="U28" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>199.1703102162162</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.388344290787188</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.3883442907877</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24812,10 +24812,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>1.533699953843268</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.533699953843495</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>316.45975839138</v>
       </c>
       <c r="T31" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U31" t="n">
         <v>150.8146863564251</v>
       </c>
       <c r="V31" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W31" t="n">
         <v>226.3728098387097</v>
@@ -24940,7 +24940,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24979,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.388344292977649</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25049,10 +25049,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>316.45975839138</v>
       </c>
       <c r="T34" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U34" t="n">
         <v>150.8146863564251</v>
       </c>
       <c r="V34" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W34" t="n">
         <v>226.3728098387097</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.388344292978104</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25228,7 +25228,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.388344292978161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25371,13 +25371,13 @@
         <v>316.45975839138</v>
       </c>
       <c r="T37" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U37" t="n">
         <v>150.8146863564251</v>
       </c>
       <c r="V37" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W37" t="n">
         <v>226.3728098387097</v>
@@ -25414,7 +25414,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>1.533699957572821</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>316.45975839138</v>
       </c>
       <c r="T40" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U40" t="n">
         <v>150.8146863564251</v>
       </c>
       <c r="V40" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W40" t="n">
         <v>226.3728098387097</v>
@@ -25651,7 +25651,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V43" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W43" t="n">
-        <v>211.9747076517084</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X43" t="n">
         <v>247.4436454301076</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>1.388344292978218</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25997,10 +25997,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26064,7 +26064,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N46" t="n">
-        <v>168.0209277307011</v>
+        <v>2.808139187274691</v>
       </c>
       <c r="O46" t="n">
         <v>268.0582198167198</v>
@@ -26091,7 +26091,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W46" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X46" t="n">
         <v>247.4436454301076</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15184.78357961383</v>
+        <v>1253038.088453473</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30192.00001986756</v>
+        <v>2480930.702777752</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>45199.21646012127</v>
+        <v>3708823.317102033</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>62279.9446026502</v>
+        <v>4808665.190726486</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>79360.67274517912</v>
+        <v>5908507.064350939</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>96441.40088770806</v>
+        <v>7008348.937975385</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>113522.129030237</v>
+        <v>8108190.81159983</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>130602.8571727659</v>
+        <v>9208032.685224274</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>147683.5853152948</v>
+        <v>10307874.55884872</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>164764.3134578219</v>
+        <v>11407716.43247348</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>181845.0416003508</v>
+        <v>12507558.30609793</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>198925.7697428797</v>
+        <v>13607400.17972238</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>216006.4978854088</v>
+        <v>14707242.05334684</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>233087.2260279379</v>
+        <v>15807083.92697131</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>250167.954170467</v>
+        <v>16906925.80059577</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>976017.2062577608</v>
+        <v>976017.2062577609</v>
       </c>
       <c r="C2" t="n">
         <v>976017.2062577608</v>
@@ -26331,37 +26331,37 @@
         <v>874233.2841630246</v>
       </c>
       <c r="F2" t="n">
-        <v>874233.2841630247</v>
+        <v>874233.2841630249</v>
       </c>
       <c r="G2" t="n">
-        <v>874233.2841630247</v>
+        <v>874233.2841630249</v>
       </c>
       <c r="H2" t="n">
-        <v>874233.2841630247</v>
+        <v>874233.2841630253</v>
       </c>
       <c r="I2" t="n">
         <v>874233.2841630247</v>
       </c>
       <c r="J2" t="n">
+        <v>874233.2841630246</v>
+      </c>
+      <c r="K2" t="n">
+        <v>874233.2841632825</v>
+      </c>
+      <c r="L2" t="n">
         <v>874233.2841630247</v>
       </c>
-      <c r="K2" t="n">
-        <v>874233.2841632828</v>
-      </c>
-      <c r="L2" t="n">
-        <v>874233.284163025</v>
-      </c>
       <c r="M2" t="n">
+        <v>874233.2841630247</v>
+      </c>
+      <c r="N2" t="n">
+        <v>874233.2841630249</v>
+      </c>
+      <c r="O2" t="n">
         <v>874233.2841630245</v>
       </c>
-      <c r="N2" t="n">
-        <v>874233.2841630246</v>
-      </c>
-      <c r="O2" t="n">
-        <v>874233.2841630246</v>
-      </c>
       <c r="P2" t="n">
-        <v>874233.2841630246</v>
+        <v>874233.2841630247</v>
       </c>
     </row>
     <row r="3">
@@ -26441,13 +26441,13 @@
         <v>26356.19966309946</v>
       </c>
       <c r="H4" t="n">
+        <v>26356.19966309952</v>
+      </c>
+      <c r="I4" t="n">
+        <v>26356.19966309945</v>
+      </c>
+      <c r="J4" t="n">
         <v>26356.19966309946</v>
-      </c>
-      <c r="I4" t="n">
-        <v>26356.19966309946</v>
-      </c>
-      <c r="J4" t="n">
-        <v>26356.19966309947</v>
       </c>
       <c r="K4" t="n">
         <v>26356.19966328369</v>
@@ -26456,13 +26456,13 @@
         <v>26356.19966309947</v>
       </c>
       <c r="M4" t="n">
+        <v>26356.19966309946</v>
+      </c>
+      <c r="N4" t="n">
+        <v>26356.19966309946</v>
+      </c>
+      <c r="O4" t="n">
         <v>26356.19966309945</v>
-      </c>
-      <c r="N4" t="n">
-        <v>26356.19966309947</v>
-      </c>
-      <c r="O4" t="n">
-        <v>26356.19966309946</v>
       </c>
       <c r="P4" t="n">
         <v>26356.19966309946</v>
@@ -26539,34 +26539,34 @@
         <v>708897.6844999252</v>
       </c>
       <c r="F6" t="n">
-        <v>708897.6844999252</v>
+        <v>708897.6844999255</v>
       </c>
       <c r="G6" t="n">
-        <v>708897.6844999252</v>
+        <v>708897.6844999255</v>
       </c>
       <c r="H6" t="n">
-        <v>708897.6844999252</v>
+        <v>708897.6844999258</v>
       </c>
       <c r="I6" t="n">
         <v>708897.6844999252</v>
       </c>
       <c r="J6" t="n">
-        <v>88673.68449992529</v>
+        <v>88673.68449992518</v>
       </c>
       <c r="K6" t="n">
-        <v>708897.6844999992</v>
+        <v>708897.6844999988</v>
       </c>
       <c r="L6" t="n">
+        <v>708897.6844999252</v>
+      </c>
+      <c r="M6" t="n">
+        <v>708897.6844999252</v>
+      </c>
+      <c r="N6" t="n">
         <v>708897.6844999255</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>708897.684499925</v>
-      </c>
-      <c r="N6" t="n">
-        <v>708897.6844999252</v>
-      </c>
-      <c r="O6" t="n">
-        <v>708897.6844999252</v>
       </c>
       <c r="P6" t="n">
         <v>708897.6844999252</v>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27144,22 +27144,22 @@
         <v>1762</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27602,13 +27602,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.533699957572992</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27796,10 +27796,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T5" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27927,10 +27927,10 @@
         <v>97.40414414470841</v>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>151.1650359809837</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>31.85592323974635</v>
@@ -27997,7 +27997,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -28042,7 +28042,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1.388344292978104</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28082,7 +28082,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.533699957573035</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28124,7 +28124,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.533699957572821</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28167,7 +28167,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>119.9712283912286</v>
       </c>
       <c r="L10" t="n">
         <v>31.85592323974635</v>
@@ -28176,7 +28176,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N10" t="n">
-        <v>287.9921561219296</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O10" t="n">
         <v>268.0582198167198</v>
@@ -34825,28 +34825,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K2" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L2" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M2" t="n">
-        <v>487.0496964782857</v>
+        <v>1172.95863593888</v>
       </c>
       <c r="N2" t="n">
-        <v>1620.580889925231</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O2" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P2" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q2" t="n">
         <v>461.4348583860824</v>
@@ -34995,7 +34995,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>151.1650359809837</v>
+        <v>151.1650359809836</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -35065,10 +35065,10 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J5" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K5" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L5" t="n">
         <v>926.861336683417</v>
@@ -35077,19 +35077,19 @@
         <v>487.0496964782857</v>
       </c>
       <c r="N5" t="n">
-        <v>570.7505695683558</v>
+        <v>1334.010508988288</v>
       </c>
       <c r="O5" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P5" t="n">
-        <v>1160.224398940241</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q5" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R5" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35223,10 +35223,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>302.1616117352398</v>
+        <v>150.9965757542561</v>
       </c>
       <c r="K7" t="n">
-        <v>17.57070160869296</v>
+        <v>168.7357375896767</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -35299,16 +35299,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K8" t="n">
-        <v>747.114286432161</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L8" t="n">
-        <v>1536.418460952325</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
@@ -35320,13 +35320,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P8" t="n">
-        <v>1714.888365095753</v>
+        <v>950.005833194985</v>
       </c>
       <c r="Q8" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35463,7 +35463,7 @@
         <v>150.9965757542561</v>
       </c>
       <c r="K10" t="n">
-        <v>17.57070160869296</v>
+        <v>137.5419299999215</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -35472,7 +35472,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>119.9712283912285</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35539,7 +35539,7 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J11" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K11" t="n">
         <v>747.114286432161</v>
@@ -35548,7 +35548,7 @@
         <v>926.861336683417</v>
       </c>
       <c r="M11" t="n">
-        <v>487.0496964782857</v>
+        <v>1351.332680151743</v>
       </c>
       <c r="N11" t="n">
         <v>570.7505695683558</v>
@@ -35557,7 +35557,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P11" t="n">
-        <v>1278.288679508931</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q11" t="n">
         <v>1077.286931655656</v>
@@ -35776,13 +35776,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J14" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K14" t="n">
-        <v>747.114286432161</v>
+        <v>1384.597709982005</v>
       </c>
       <c r="L14" t="n">
-        <v>1106.113724366168</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M14" t="n">
         <v>487.0496964782857</v>
@@ -35791,10 +35791,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O14" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P14" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q14" t="n">
         <v>461.4348583860824</v>
@@ -36019,25 +36019,25 @@
         <v>747.114286432161</v>
       </c>
       <c r="L17" t="n">
-        <v>1762</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M17" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N17" t="n">
-        <v>570.7505695683558</v>
+        <v>1062.243413268573</v>
       </c>
       <c r="O17" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P17" t="n">
-        <v>873.4547527785041</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q17" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36247,25 +36247,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>5.483380304249662e-12</v>
       </c>
       <c r="J20" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K20" t="n">
-        <v>747.1142864321608</v>
+        <v>845.0974519041198</v>
       </c>
       <c r="L20" t="n">
-        <v>926.8613366834174</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M20" t="n">
-        <v>1427.68449534343</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N20" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O20" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P20" t="n">
         <v>844.3104324216301</v>
@@ -36484,19 +36484,19 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K23" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L23" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M23" t="n">
-        <v>487.0496964782857</v>
+        <v>1172.95863593888</v>
       </c>
       <c r="N23" t="n">
         <v>570.7505695683558</v>
@@ -36505,10 +36505,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P23" t="n">
-        <v>1708.593416095087</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q23" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36721,19 +36721,19 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K26" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L26" t="n">
-        <v>1346.725348076116</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M26" t="n">
-        <v>1547.320742028618</v>
+        <v>1427.68449534343</v>
       </c>
       <c r="N26" t="n">
         <v>570.7505695683558</v>
@@ -36745,7 +36745,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q26" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36958,34 +36958,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L29" t="n">
-        <v>1762</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M29" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N29" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O29" t="n">
-        <v>919.3483666068121</v>
+        <v>1379.171816252742</v>
       </c>
       <c r="P29" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q29" t="n">
-        <v>988.3669714438406</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R29" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37195,19 +37195,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K32" t="n">
-        <v>1463.98940395526</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L32" t="n">
-        <v>926.861336683417</v>
+        <v>1150.621018025463</v>
       </c>
       <c r="M32" t="n">
-        <v>820.0048993120618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N32" t="n">
         <v>570.7505695683558</v>
@@ -37219,7 +37219,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q32" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37432,25 +37432,25 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J35" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K35" t="n">
-        <v>747.1142864321608</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L35" t="n">
-        <v>926.8613366834174</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M35" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N35" t="n">
-        <v>570.7505695683558</v>
+        <v>631.9386766824168</v>
       </c>
       <c r="O35" t="n">
-        <v>1605.257306067407</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P35" t="n">
         <v>1714.888365095753</v>
@@ -37459,7 +37459,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37672,16 +37672,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K38" t="n">
-        <v>1463.989403955261</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L38" t="n">
-        <v>1218.10407414019</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M38" t="n">
-        <v>487.0496964782857</v>
+        <v>1054.89435537019</v>
       </c>
       <c r="N38" t="n">
         <v>570.7505695683558</v>
@@ -37690,7 +37690,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P38" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q38" t="n">
         <v>461.4348583860824</v>
@@ -37906,28 +37906,28 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K41" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L41" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M41" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N41" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O41" t="n">
-        <v>1528.90549087572</v>
+        <v>1415.564193191198</v>
       </c>
       <c r="P41" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q41" t="n">
         <v>461.4348583860824</v>
@@ -38143,34 +38143,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J44" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
-        <v>747.1142864321608</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L44" t="n">
-        <v>926.8613366834174</v>
+        <v>1762</v>
       </c>
       <c r="M44" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N44" t="n">
-        <v>570.7505695683558</v>
+        <v>1215.746963194804</v>
       </c>
       <c r="O44" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P44" t="n">
-        <v>1440.08139059447</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q44" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R44" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
